--- a/data/LCI_Digital-Content-Consumption.xlsx
+++ b/data/LCI_Digital-Content-Consumption.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086FC304-18E7-46BC-AF8C-DCAD349CB186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42EF16A-10EA-4BD0-90B2-0566CE38CC1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8777" windowHeight="1123" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8775" windowHeight="1125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCI_ICT" sheetId="1" r:id="rId1"/>
@@ -517,9 +517,6 @@
     <t>monitor disposal allocated to 1 hour of active mode over monitor's lifetime. 5.1 kg/monitor was assumed based on the inventory "display production, liquid crystal, 17 inches"</t>
   </si>
   <si>
-    <t>[-0.000582, -0.000508, -0.000681]</t>
-  </si>
-  <si>
     <t>[0.0015, 0.0011, 0.0018]</t>
   </si>
   <si>
@@ -557,6 +554,9 @@
   </si>
   <si>
     <t>Digital Content Consumption</t>
+  </si>
+  <si>
+    <t>[-0.000582, -0.000681, -0.000508]</t>
   </si>
 </sst>
 </file>
@@ -1083,36 +1083,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78:K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.15234375" style="2"/>
-    <col min="8" max="8" width="14.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.15234375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.69140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.15234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.15234375" style="2"/>
-    <col min="14" max="14" width="10.3046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="10.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.15234375" style="2"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" s="68"/>
       <c r="D1" s="69"/>
@@ -1124,12 +1124,12 @@
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="12"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1185,20 +1185,20 @@
       <c r="C8" s="7"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
@@ -1266,7 +1266,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -1325,13 +1325,14 @@
         <v>17</v>
       </c>
       <c r="I14" s="60"/>
-    </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="12"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1341,7 @@
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1349,7 +1350,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1359,7 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1368,7 @@
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1377,7 +1378,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1387,20 +1388,20 @@
       <c r="C21" s="7"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
@@ -1468,7 +1469,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1507,12 +1508,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="12"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1522,7 @@
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +1531,7 @@
       </c>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +1540,7 @@
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>9</v>
       </c>
@@ -1548,7 +1549,7 @@
       </c>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1559,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -1568,7 +1569,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
@@ -1578,13 +1579,13 @@
       <c r="C34" s="7"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>55</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
@@ -1654,7 +1655,7 @@
       <c r="L37" s="8"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
@@ -1696,12 +1697,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="12"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1710,7 +1711,7 @@
       </c>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1719,7 +1720,7 @@
       </c>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1728,7 +1729,7 @@
       </c>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>9</v>
       </c>
@@ -1737,7 +1738,7 @@
       </c>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +1748,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
@@ -1757,7 +1758,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -1767,13 +1768,13 @@
       <c r="C46" s="7"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>125</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -1840,7 +1841,7 @@
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>32</v>
       </c>
@@ -1878,7 +1879,7 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>3.4857498485822047E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>32</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>2.229013446183049E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>32</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>2.7251525229481848E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>32</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>1.222417788388815E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>32</v>
       </c>
@@ -2064,12 +2065,12 @@
         <v>1.222417788388815E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="12"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2078,7 +2079,7 @@
       </c>
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2087,7 +2088,7 @@
       </c>
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,7 +2097,7 @@
       </c>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>9</v>
       </c>
@@ -2105,7 +2106,7 @@
       </c>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -2115,7 +2116,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
@@ -2125,7 +2126,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
@@ -2135,13 +2136,13 @@
       <c r="C63" s="7"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>55</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
@@ -2207,7 +2208,7 @@
       </c>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>2.0089520183834437E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>32</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>1.7704048760062027E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>32</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>1.1321111511805593E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>32</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>1.384099124740819E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>32</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>6.2086337433551997E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>32</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>6.2086337433551997E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>63</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>64</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>64</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>18</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>157</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>157</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>150</v>
       </c>
@@ -2677,26 +2678,26 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="27"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D86" s="8"/>
     </row>
   </sheetData>
@@ -2710,33 +2711,33 @@
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.15234375" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="14" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.69140625" style="2" customWidth="1"/>
-    <col min="16" max="25" width="12.69140625" customWidth="1"/>
+    <col min="9" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="2" customWidth="1"/>
+    <col min="16" max="25" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="58" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
@@ -2793,7 +2794,7 @@
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36" t="s">
@@ -2832,7 +2833,7 @@
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>31</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36" t="s">
@@ -2871,7 +2872,7 @@
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>34</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="36" t="s">
@@ -2913,7 +2914,7 @@
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>35</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36" t="s">
@@ -2955,7 +2956,7 @@
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>36</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36" t="s">
@@ -2997,7 +2998,7 @@
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>37</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="36" t="s">
@@ -3031,7 +3032,7 @@
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>38</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36" t="s">
@@ -3071,7 +3072,7 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>39</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36" t="s">
@@ -3111,7 +3112,7 @@
       <c r="X10" s="21"/>
       <c r="Y10" s="21"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>40</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36" t="s">
@@ -3151,7 +3152,7 @@
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>41</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
@@ -3187,7 +3188,7 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>42</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36" t="s">
@@ -3223,7 +3224,7 @@
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>43</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36" t="s">
@@ -3259,7 +3260,7 @@
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -3280,25 +3281,25 @@
         <v>26</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="J15" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="K15" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="M15" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="N15" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>138</v>
@@ -3307,7 +3308,7 @@
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>131</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -3343,7 +3344,7 @@
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>130</v>
       </c>
@@ -3365,7 +3366,7 @@
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
@@ -3379,7 +3380,7 @@
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -3402,7 +3403,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -3415,7 +3416,7 @@
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3439,7 +3440,7 @@
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
@@ -3451,7 +3452,7 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3475,7 +3476,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
@@ -3487,7 +3488,7 @@
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>128</v>
       </c>
@@ -3511,7 +3512,7 @@
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -3523,7 +3524,7 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -3549,10 +3550,10 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>142</v>
@@ -3561,7 +3562,7 @@
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="18" t="s">
@@ -3609,7 +3610,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="18" t="s">
@@ -3657,7 +3658,7 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>124</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="18" t="s">
@@ -3705,7 +3706,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>125</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="18" t="s">
@@ -3753,7 +3754,7 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="18" t="s">
@@ -3802,7 +3803,7 @@
       <c r="X27" s="23"/>
       <c r="Y27" s="23"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="18"/>
@@ -3821,7 +3822,7 @@
       <c r="P28" s="24"/>
       <c r="U28" s="24"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="18"/>
@@ -3840,7 +3841,7 @@
       <c r="P29" s="24"/>
       <c r="U29" s="24"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -3859,7 +3860,7 @@
       <c r="Q30" s="19"/>
       <c r="U30" s="24"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -3878,7 +3879,7 @@
       <c r="Q31" s="19"/>
       <c r="U31" s="24"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3897,7 +3898,7 @@
       <c r="Q32" s="24"/>
       <c r="U32" s="24"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3916,7 +3917,7 @@
       <c r="Q33" s="24"/>
       <c r="U33" s="24"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3935,7 +3936,7 @@
       <c r="Q34" s="24"/>
       <c r="U34" s="24"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3954,7 +3955,7 @@
       <c r="Q35" s="24"/>
       <c r="U35" s="24"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3973,7 +3974,7 @@
       <c r="Q36" s="24"/>
       <c r="U36" s="24"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="66"/>
@@ -3992,7 +3993,7 @@
       <c r="Q37" s="24"/>
       <c r="U37" s="24"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="2"/>
       <c r="D38" s="1"/>
@@ -4010,7 +4011,7 @@
       <c r="Q38" s="24"/>
       <c r="U38" s="24"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="2"/>
       <c r="C39" s="66"/>
@@ -4029,7 +4030,7 @@
       <c r="Q39" s="19"/>
       <c r="U39" s="24"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -4048,7 +4049,7 @@
       <c r="Q40" s="19"/>
       <c r="U40" s="24"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -4067,7 +4068,7 @@
       <c r="Q41" s="19"/>
       <c r="U41" s="24"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="2"/>
       <c r="C42" s="65"/>
@@ -4086,7 +4087,7 @@
       <c r="Q42" s="19"/>
       <c r="U42" s="24"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -4105,7 +4106,7 @@
       <c r="Q43" s="19"/>
       <c r="U43" s="24"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -4124,7 +4125,7 @@
       <c r="Q44" s="19"/>
       <c r="U44" s="24"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -4143,7 +4144,7 @@
       <c r="Q45" s="19"/>
       <c r="U45" s="24"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="63"/>
       <c r="C46" s="1"/>
@@ -4162,7 +4163,7 @@
       <c r="Q46" s="19"/>
       <c r="U46" s="24"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -4180,7 +4181,7 @@
       <c r="O47" s="1"/>
       <c r="Q47" s="19"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -4198,7 +4199,7 @@
       <c r="O48" s="1"/>
       <c r="Q48" s="19"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4228,28 +4229,28 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.3828125" customWidth="1"/>
-    <col min="2" max="2" width="39.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.15234375" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.15234375" customWidth="1"/>
-    <col min="11" max="13" width="12.69140625" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
@@ -4286,7 +4287,7 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>161</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>162</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36" t="s">
@@ -4319,7 +4320,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>72</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41" t="s">
@@ -4352,7 +4353,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>73</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41" t="s">
@@ -4382,7 +4383,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>74</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41" t="s">
@@ -4412,7 +4413,7 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>75</v>
       </c>
@@ -4420,7 +4421,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41" t="s">
@@ -4442,7 +4443,7 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45" t="s">
@@ -4474,7 +4475,7 @@
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>80</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45" t="s">
@@ -4504,7 +4505,7 @@
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>81</v>
       </c>
@@ -4512,7 +4513,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45" t="s">
@@ -4534,7 +4535,7 @@
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>82</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45" t="s">
@@ -4564,7 +4565,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>86</v>
       </c>
@@ -4572,7 +4573,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="41"/>
       <c r="E12" s="39" t="s">
@@ -4592,7 +4593,7 @@
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>83</v>
       </c>
@@ -4600,7 +4601,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="39" t="s">
@@ -4618,7 +4619,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>84</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="39" t="s">
@@ -4646,7 +4647,7 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>87</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="39" t="s">
@@ -4672,7 +4673,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>85</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="39" t="s">
@@ -4698,7 +4699,7 @@
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>88</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="44" t="s">
@@ -4724,7 +4725,7 @@
       </c>
       <c r="J17" s="47"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>89</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="44" t="s">
@@ -4750,7 +4751,7 @@
       </c>
       <c r="J18" s="46"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>90</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="44" t="s">
@@ -4776,7 +4777,7 @@
       </c>
       <c r="J19" s="46"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>91</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="44" t="s">
@@ -4802,7 +4803,7 @@
       </c>
       <c r="J20" s="46"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>92</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="44" t="s">
@@ -4828,7 +4829,7 @@
       </c>
       <c r="J21" s="46"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>93</v>
       </c>
@@ -4836,7 +4837,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="39" t="s">
@@ -4856,7 +4857,7 @@
         <v>258.23</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>94</v>
       </c>
@@ -4864,7 +4865,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="39" t="s">
@@ -4884,7 +4885,7 @@
         <v>133.28</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>95</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="39" t="s">
@@ -4912,7 +4913,7 @@
         <v>116.62</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>96</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="39" t="s">
@@ -4940,7 +4941,7 @@
         <v>116.62</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>97</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="39" t="s">
@@ -4966,7 +4967,7 @@
       </c>
       <c r="J26" s="42"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>98</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="44" t="s">
@@ -4992,7 +4993,7 @@
         <v>208.25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>100</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="39" t="s">
@@ -5018,7 +5019,7 @@
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>99</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="39" t="s">
@@ -5042,7 +5043,7 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>102</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="39" t="s">
@@ -5066,7 +5067,7 @@
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
         <v>101</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="39" t="s">
@@ -5090,7 +5091,7 @@
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>103</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="44" t="s">
@@ -5116,7 +5117,7 @@
       </c>
       <c r="J32" s="47"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>104</v>
       </c>
@@ -5124,7 +5125,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="44" t="s">
@@ -5142,7 +5143,7 @@
       </c>
       <c r="J33" s="46"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>105</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="44" t="s">
@@ -5168,7 +5169,7 @@
       </c>
       <c r="J34" s="46"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>106</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>39</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="44" t="s">
@@ -5195,7 +5196,7 @@
       <c r="J35" s="46"/>
       <c r="L35" s="58"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
         <v>107</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="39" t="s">
@@ -5221,7 +5222,7 @@
         <v>333.94</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
         <v>108</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="39" t="s">
@@ -5247,7 +5248,7 @@
         <v>77.353333333333325</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="51" t="s">
         <v>109</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="39" t="s">
@@ -5273,7 +5274,7 @@
         <v>77.353333333333325</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="51" t="s">
         <v>110</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="39" t="s">
@@ -5299,7 +5300,7 @@
         <v>77.353333333333325</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
         <v>123</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="44" t="s">
@@ -5325,7 +5326,7 @@
       <c r="I40" s="46"/>
       <c r="J40" s="46"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="52" t="s">
         <v>122</v>
       </c>
@@ -5333,7 +5334,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D41" s="45"/>
       <c r="E41" s="44" t="s">
@@ -5349,7 +5350,7 @@
       <c r="I41" s="46"/>
       <c r="J41" s="46"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
         <v>111</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="39" t="s">
@@ -5375,7 +5376,7 @@
       </c>
       <c r="J42" s="42"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="51" t="s">
         <v>112</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D43" s="41"/>
       <c r="E43" s="39" t="s">
@@ -5401,7 +5402,7 @@
       </c>
       <c r="J43" s="42"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>113</v>
       </c>
@@ -5409,7 +5410,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D44" s="45"/>
       <c r="E44" s="44" t="s">
@@ -5427,7 +5428,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
         <v>114</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D45" s="45"/>
       <c r="E45" s="44" t="s">
@@ -5466,31 +5467,31 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="9" width="11.69140625" customWidth="1"/>
-    <col min="10" max="10" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.69140625" customWidth="1"/>
-    <col min="13" max="13" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.15234375" customWidth="1"/>
-    <col min="15" max="15" width="13.84375" customWidth="1"/>
-    <col min="16" max="16" width="14.15234375" customWidth="1"/>
-    <col min="17" max="34" width="12.69140625" customWidth="1"/>
-    <col min="35" max="35" width="12.69140625" style="2" customWidth="1"/>
-    <col min="36" max="45" width="12.69140625" customWidth="1"/>
+    <col min="7" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="34" width="12.7109375" customWidth="1"/>
+    <col min="35" max="35" width="12.7109375" style="2" customWidth="1"/>
+    <col min="36" max="45" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
@@ -5537,7 +5538,7 @@
       <c r="AJ2" s="24"/>
       <c r="AO2" s="24"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>29</v>
       </c>
@@ -5584,7 +5585,7 @@
       <c r="AJ3" s="24"/>
       <c r="AO3" s="24"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>31</v>
       </c>
@@ -5631,7 +5632,7 @@
       <c r="AK4" s="19"/>
       <c r="AO4" s="24"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>34</v>
       </c>
@@ -5678,7 +5679,7 @@
       <c r="AK5" s="19"/>
       <c r="AO5" s="24"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>35</v>
       </c>
@@ -5725,7 +5726,7 @@
       <c r="AK6" s="24"/>
       <c r="AO6" s="24"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>36</v>
       </c>
@@ -5772,7 +5773,7 @@
       <c r="AK7" s="24"/>
       <c r="AO7" s="24"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>37</v>
       </c>
@@ -5819,7 +5820,7 @@
       <c r="AK8" s="24"/>
       <c r="AO8" s="24"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>38</v>
       </c>
@@ -5866,7 +5867,7 @@
       <c r="AK9" s="24"/>
       <c r="AO9" s="24"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>39</v>
       </c>
@@ -5913,7 +5914,7 @@
       <c r="AK10" s="24"/>
       <c r="AO10" s="24"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>40</v>
       </c>
@@ -5960,7 +5961,7 @@
       <c r="AK11" s="24"/>
       <c r="AO11" s="24"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>41</v>
       </c>
@@ -6007,7 +6008,7 @@
       <c r="AK12" s="19"/>
       <c r="AO12" s="24"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>42</v>
       </c>
@@ -6054,7 +6055,7 @@
       <c r="AK13" s="19"/>
       <c r="AO13" s="24"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>43</v>
       </c>
@@ -6101,7 +6102,7 @@
       <c r="AK14" s="19"/>
       <c r="AO14" s="24"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6140,7 +6141,7 @@
       <c r="AK15" s="19"/>
       <c r="AO15" s="24"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6179,7 +6180,7 @@
       <c r="AK16" s="19"/>
       <c r="AO16" s="24"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6218,7 +6219,7 @@
       <c r="AK17" s="19"/>
       <c r="AO17" s="24"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6257,7 +6258,7 @@
       <c r="AK18" s="19"/>
       <c r="AO18" s="24"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6295,7 +6296,7 @@
       <c r="AI19" s="1"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -6333,7 +6334,7 @@
       <c r="AI20" s="1"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>

--- a/data/LCI_Digital-Content-Consumption.xlsx
+++ b/data/LCI_Digital-Content-Consumption.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42EF16A-10EA-4BD0-90B2-0566CE38CC1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F43A8-2876-4B26-8997-5DD2BE0BCEEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8775" windowHeight="1125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8777" windowHeight="1123" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCI_ICT" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="178">
   <si>
     <t>Database</t>
   </si>
@@ -1083,31 +1083,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78:K78"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67:C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.3828125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="2"/>
-    <col min="14" max="14" width="10.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.15234375" style="2"/>
+    <col min="8" max="8" width="14.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.15234375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.69140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.15234375" style="2"/>
+    <col min="14" max="14" width="10.3046875" style="2" customWidth="1"/>
     <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="16" max="16384" width="9.15234375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -1124,12 +1124,12 @@
       <c r="J1" s="69"/>
       <c r="K1" s="69"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6"/>
       <c r="C2" s="12"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1185,20 +1185,20 @@
       <c r="C8" s="7"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -1327,12 +1327,12 @@
       <c r="I14" s="60"/>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="12"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1388,20 +1388,20 @@
       <c r="C21" s="7"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1508,12 +1508,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
       <c r="C27" s="12"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>9</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
@@ -1579,13 +1579,13 @@
       <c r="C34" s="7"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="L37" s="8"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
@@ -1697,12 +1697,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B39" s="6"/>
       <c r="C39" s="12"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
         <v>9</v>
       </c>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -1768,13 +1768,13 @@
       <c r="C46" s="7"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>125</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>32</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>3.4857498485822047E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>32</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>2.229013446183049E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>32</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>2.7251525229481848E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>32</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1.222417788388815E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>32</v>
       </c>
@@ -2065,12 +2065,12 @@
         <v>1.222417788388815E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="6"/>
       <c r="C56" s="12"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
@@ -2136,13 +2136,13 @@
       <c r="C63" s="7"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>8</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>2.0089520183834437E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>32</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>1.7704048760062027E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>32</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>1.1321111511805593E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>32</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>1.384099124740819E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>32</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>6.2086337433551997E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>32</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>6.2086337433551997E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>63</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>64</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>64</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>18</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>157</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>157</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>150</v>
       </c>
@@ -2678,26 +2678,26 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.4">
       <c r="E81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.4">
       <c r="E82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C83" s="27"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D86" s="8"/>
     </row>
   </sheetData>
@@ -2711,33 +2711,33 @@
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.15234375" customWidth="1"/>
+    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" customWidth="1"/>
-    <col min="16" max="25" width="12.7109375" customWidth="1"/>
+    <col min="9" max="14" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.69140625" style="2" customWidth="1"/>
+    <col min="16" max="25" width="12.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="58" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="35" t="s">
         <v>31</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
         <v>34</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="37" t="s">
         <v>35</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="37" t="s">
         <v>36</v>
       </c>
@@ -2998,7 +2998,7 @@
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="37" t="s">
         <v>37</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>38</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="37" t="s">
         <v>39</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="X10" s="21"/>
       <c r="Y10" s="21"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
         <v>40</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="37" t="s">
         <v>41</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="37" t="s">
         <v>42</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="37" t="s">
         <v>43</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>131</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>130</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>128</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -3548,7 +3548,9 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="L22" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="M22" s="22" t="s">
         <v>175</v>
       </c>
@@ -3562,7 +3564,7 @@
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -3610,7 +3612,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
@@ -3658,7 +3660,7 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>124</v>
       </c>
@@ -3706,7 +3708,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>125</v>
       </c>
@@ -3754,7 +3756,7 @@
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -3803,7 +3805,7 @@
       <c r="X27" s="23"/>
       <c r="Y27" s="23"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="18"/>
@@ -3822,7 +3824,7 @@
       <c r="P28" s="24"/>
       <c r="U28" s="24"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="18"/>
@@ -3841,7 +3843,7 @@
       <c r="P29" s="24"/>
       <c r="U29" s="24"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -3860,7 +3862,7 @@
       <c r="Q30" s="19"/>
       <c r="U30" s="24"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -3879,7 +3881,7 @@
       <c r="Q31" s="19"/>
       <c r="U31" s="24"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3898,7 +3900,7 @@
       <c r="Q32" s="24"/>
       <c r="U32" s="24"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3917,7 +3919,7 @@
       <c r="Q33" s="24"/>
       <c r="U33" s="24"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3936,7 +3938,7 @@
       <c r="Q34" s="24"/>
       <c r="U34" s="24"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3955,7 +3957,7 @@
       <c r="Q35" s="24"/>
       <c r="U35" s="24"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3974,7 +3976,7 @@
       <c r="Q36" s="24"/>
       <c r="U36" s="24"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="66"/>
@@ -3993,7 +3995,7 @@
       <c r="Q37" s="24"/>
       <c r="U37" s="24"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
       <c r="B38" s="2"/>
       <c r="D38" s="1"/>
@@ -4011,7 +4013,7 @@
       <c r="Q38" s="24"/>
       <c r="U38" s="24"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
       <c r="B39" s="2"/>
       <c r="C39" s="66"/>
@@ -4030,7 +4032,7 @@
       <c r="Q39" s="19"/>
       <c r="U39" s="24"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -4049,7 +4051,7 @@
       <c r="Q40" s="19"/>
       <c r="U40" s="24"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -4068,7 +4070,7 @@
       <c r="Q41" s="19"/>
       <c r="U41" s="24"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
       <c r="B42" s="2"/>
       <c r="C42" s="65"/>
@@ -4087,7 +4089,7 @@
       <c r="Q42" s="19"/>
       <c r="U42" s="24"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -4106,7 +4108,7 @@
       <c r="Q43" s="19"/>
       <c r="U43" s="24"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -4125,7 +4127,7 @@
       <c r="Q44" s="19"/>
       <c r="U44" s="24"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -4144,7 +4146,7 @@
       <c r="Q45" s="19"/>
       <c r="U45" s="24"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
       <c r="B46" s="63"/>
       <c r="C46" s="1"/>
@@ -4163,7 +4165,7 @@
       <c r="Q46" s="19"/>
       <c r="U46" s="24"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -4181,7 +4183,7 @@
       <c r="O47" s="1"/>
       <c r="Q47" s="19"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -4199,7 +4201,7 @@
       <c r="O48" s="1"/>
       <c r="Q48" s="19"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4232,25 +4234,25 @@
       <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="13" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.3828125" customWidth="1"/>
+    <col min="2" max="2" width="39.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.15234375" customWidth="1"/>
+    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.15234375" customWidth="1"/>
+    <col min="11" max="13" width="12.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
@@ -4287,7 +4289,7 @@
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
         <v>161</v>
       </c>
@@ -4320,7 +4322,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
         <v>72</v>
       </c>
@@ -4353,7 +4355,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="39" t="s">
         <v>73</v>
       </c>
@@ -4383,7 +4385,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
         <v>74</v>
       </c>
@@ -4413,7 +4415,7 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
         <v>75</v>
       </c>
@@ -4443,7 +4445,7 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="43" t="s">
         <v>76</v>
       </c>
@@ -4475,7 +4477,7 @@
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="43" t="s">
         <v>80</v>
       </c>
@@ -4505,7 +4507,7 @@
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="43" t="s">
         <v>81</v>
       </c>
@@ -4535,7 +4537,7 @@
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="43" t="s">
         <v>82</v>
       </c>
@@ -4565,7 +4567,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="49" t="s">
         <v>86</v>
       </c>
@@ -4593,7 +4595,7 @@
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="49" t="s">
         <v>83</v>
       </c>
@@ -4619,7 +4621,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="49" t="s">
         <v>84</v>
       </c>
@@ -4647,7 +4649,7 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="49" t="s">
         <v>87</v>
       </c>
@@ -4673,7 +4675,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="49" t="s">
         <v>85</v>
       </c>
@@ -4699,7 +4701,7 @@
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="43" t="s">
         <v>88</v>
       </c>
@@ -4725,7 +4727,7 @@
       </c>
       <c r="J17" s="47"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="43" t="s">
         <v>89</v>
       </c>
@@ -4751,7 +4753,7 @@
       </c>
       <c r="J18" s="46"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="43" t="s">
         <v>90</v>
       </c>
@@ -4777,7 +4779,7 @@
       </c>
       <c r="J19" s="46"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="43" t="s">
         <v>91</v>
       </c>
@@ -4803,7 +4805,7 @@
       </c>
       <c r="J20" s="46"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="43" t="s">
         <v>92</v>
       </c>
@@ -4829,7 +4831,7 @@
       </c>
       <c r="J21" s="46"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="49" t="s">
         <v>93</v>
       </c>
@@ -4857,7 +4859,7 @@
         <v>258.23</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="49" t="s">
         <v>94</v>
       </c>
@@ -4885,7 +4887,7 @@
         <v>133.28</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="49" t="s">
         <v>95</v>
       </c>
@@ -4913,7 +4915,7 @@
         <v>116.62</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="49" t="s">
         <v>96</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>116.62</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="49" t="s">
         <v>97</v>
       </c>
@@ -4967,7 +4969,7 @@
       </c>
       <c r="J26" s="42"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="43" t="s">
         <v>98</v>
       </c>
@@ -4993,7 +4995,7 @@
         <v>208.25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="51" t="s">
         <v>100</v>
       </c>
@@ -5019,7 +5021,7 @@
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="51" t="s">
         <v>99</v>
       </c>
@@ -5043,7 +5045,7 @@
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="51" t="s">
         <v>102</v>
       </c>
@@ -5067,7 +5069,7 @@
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="51" t="s">
         <v>101</v>
       </c>
@@ -5091,7 +5093,7 @@
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="52" t="s">
         <v>103</v>
       </c>
@@ -5117,7 +5119,7 @@
       </c>
       <c r="J32" s="47"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="52" t="s">
         <v>104</v>
       </c>
@@ -5143,7 +5145,7 @@
       </c>
       <c r="J33" s="46"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="52" t="s">
         <v>105</v>
       </c>
@@ -5169,7 +5171,7 @@
       </c>
       <c r="J34" s="46"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="52" t="s">
         <v>106</v>
       </c>
@@ -5196,7 +5198,7 @@
       <c r="J35" s="46"/>
       <c r="L35" s="58"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="51" t="s">
         <v>107</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>333.94</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="51" t="s">
         <v>108</v>
       </c>
@@ -5248,7 +5250,7 @@
         <v>77.353333333333325</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="51" t="s">
         <v>109</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>77.353333333333325</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="51" t="s">
         <v>110</v>
       </c>
@@ -5300,7 +5302,7 @@
         <v>77.353333333333325</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="52" t="s">
         <v>123</v>
       </c>
@@ -5326,7 +5328,7 @@
       <c r="I40" s="46"/>
       <c r="J40" s="46"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="52" t="s">
         <v>122</v>
       </c>
@@ -5350,7 +5352,7 @@
       <c r="I41" s="46"/>
       <c r="J41" s="46"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="51" t="s">
         <v>111</v>
       </c>
@@ -5376,7 +5378,7 @@
       </c>
       <c r="J42" s="42"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="51" t="s">
         <v>112</v>
       </c>
@@ -5402,7 +5404,7 @@
       </c>
       <c r="J43" s="42"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="52" t="s">
         <v>113</v>
       </c>
@@ -5428,7 +5430,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="52" t="s">
         <v>114</v>
       </c>
@@ -5467,31 +5469,31 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="34" width="12.7109375" customWidth="1"/>
-    <col min="35" max="35" width="12.7109375" style="2" customWidth="1"/>
-    <col min="36" max="45" width="12.7109375" customWidth="1"/>
+    <col min="7" max="9" width="11.69140625" customWidth="1"/>
+    <col min="10" max="10" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.69140625" customWidth="1"/>
+    <col min="13" max="13" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.15234375" customWidth="1"/>
+    <col min="15" max="15" width="13.84375" customWidth="1"/>
+    <col min="16" max="16" width="14.15234375" customWidth="1"/>
+    <col min="17" max="34" width="12.69140625" customWidth="1"/>
+    <col min="35" max="35" width="12.69140625" style="2" customWidth="1"/>
+    <col min="36" max="45" width="12.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
@@ -5538,7 +5540,7 @@
       <c r="AJ2" s="24"/>
       <c r="AO2" s="24"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
         <v>29</v>
       </c>
@@ -5585,7 +5587,7 @@
       <c r="AJ3" s="24"/>
       <c r="AO3" s="24"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A4" s="33" t="s">
         <v>31</v>
       </c>
@@ -5632,7 +5634,7 @@
       <c r="AK4" s="19"/>
       <c r="AO4" s="24"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A5" s="34" t="s">
         <v>34</v>
       </c>
@@ -5679,7 +5681,7 @@
       <c r="AK5" s="19"/>
       <c r="AO5" s="24"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
         <v>35</v>
       </c>
@@ -5726,7 +5728,7 @@
       <c r="AK6" s="24"/>
       <c r="AO6" s="24"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
         <v>36</v>
       </c>
@@ -5773,7 +5775,7 @@
       <c r="AK7" s="24"/>
       <c r="AO7" s="24"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A8" s="34" t="s">
         <v>37</v>
       </c>
@@ -5820,7 +5822,7 @@
       <c r="AK8" s="24"/>
       <c r="AO8" s="24"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A9" s="33" t="s">
         <v>38</v>
       </c>
@@ -5867,7 +5869,7 @@
       <c r="AK9" s="24"/>
       <c r="AO9" s="24"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A10" s="33" t="s">
         <v>39</v>
       </c>
@@ -5914,7 +5916,7 @@
       <c r="AK10" s="24"/>
       <c r="AO10" s="24"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A11" s="33" t="s">
         <v>40</v>
       </c>
@@ -5961,7 +5963,7 @@
       <c r="AK11" s="24"/>
       <c r="AO11" s="24"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A12" s="33" t="s">
         <v>41</v>
       </c>
@@ -6008,7 +6010,7 @@
       <c r="AK12" s="19"/>
       <c r="AO12" s="24"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A13" s="33" t="s">
         <v>42</v>
       </c>
@@ -6055,7 +6057,7 @@
       <c r="AK13" s="19"/>
       <c r="AO13" s="24"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A14" s="33" t="s">
         <v>43</v>
       </c>
@@ -6102,7 +6104,7 @@
       <c r="AK14" s="19"/>
       <c r="AO14" s="24"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A15" s="25"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6141,7 +6143,7 @@
       <c r="AK15" s="19"/>
       <c r="AO15" s="24"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A16" s="25"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6180,7 +6182,7 @@
       <c r="AK16" s="19"/>
       <c r="AO16" s="24"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6219,7 +6221,7 @@
       <c r="AK17" s="19"/>
       <c r="AO17" s="24"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6258,7 +6260,7 @@
       <c r="AK18" s="19"/>
       <c r="AO18" s="24"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -6296,7 +6298,7 @@
       <c r="AI19" s="1"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -6334,7 +6336,7 @@
       <c r="AI20" s="1"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>

--- a/data/LCI_Digital-Content-Consumption.xlsx
+++ b/data/LCI_Digital-Content-Consumption.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F43A8-2876-4B26-8997-5DD2BE0BCEEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E225EBF1-5045-409E-A973-AC1EDF12C072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8777" windowHeight="1123" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8777" windowHeight="1123" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCI_ICT" sheetId="1" r:id="rId1"/>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:C72"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2710,11 +2710,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99448CAE-267B-402B-A288-CF006747B19D}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/data/LCI_Digital-Content-Consumption.xlsx
+++ b/data/LCI_Digital-Content-Consumption.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E225EBF1-5045-409E-A973-AC1EDF12C072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EA7F4E-D38A-4586-8D46-43CADC8BFC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8777" windowHeight="1123" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCI_ICT" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -666,24 +677,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -691,49 +700,34 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -758,18 +752,15 @@
     <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -777,8 +768,8 @@
     <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -786,8 +777,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1083,129 +1074,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.15234375" style="2"/>
-    <col min="8" max="8" width="14.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.15234375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.69140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.15234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.15234375" style="2"/>
-    <col min="14" max="14" width="10.3046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="10.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.15234375" style="2"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="6"/>
-      <c r="C2" s="12"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B1" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1223,30 +1212,30 @@
       <c r="H11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="47" t="s">
         <v>134</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1262,153 +1251,151 @@
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I12" s="48"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="6">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="7">
         <v>5</v>
       </c>
       <c r="J13" s="4">
         <f>C13</f>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="6">
         <v>2.2831050228310503E-5</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="27"/>
-    </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="6"/>
-      <c r="C15" s="12"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="G14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" s="11" t="s">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7"/>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1426,30 +1413,30 @@
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="47" t="s">
         <v>134</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1465,134 +1452,132 @@
       <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="60"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I25" s="48"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="6">
         <v>2.8E-3</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="7">
         <v>5</v>
       </c>
       <c r="J26" s="4">
         <f>C26</f>
         <v>2.8E-3</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="6">
         <v>2.2400000000000002E-3</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="6">
         <v>3.3599999999999997E-3</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="6"/>
-      <c r="C27" s="12"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" s="11" t="s">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7"/>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -1610,30 +1595,30 @@
       <c r="H36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="59" t="s">
+      <c r="I36" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="J36" s="59" t="s">
+      <c r="J36" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="K36" s="59" t="s">
+      <c r="K36" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="L36" s="59" t="s">
+      <c r="L36" s="47" t="s">
         <v>134</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="11">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1649,47 +1634,47 @@
       <c r="H37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="6">
         <f>0.01771684761728*0.5</f>
         <v>8.8584238086399994E-3</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="8">
+      <c r="G38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="7">
         <v>5</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="6">
         <f>C38</f>
         <v>8.8584238086399994E-3</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="6">
         <f>0.0127561302844416*0.5</f>
         <v>6.3780651422207998E-3</v>
       </c>
-      <c r="L38" s="27">
+      <c r="L38" s="6">
         <f>0.020374374759872*0.5</f>
         <v>1.0187187379936E-2</v>
       </c>
@@ -1697,91 +1682,89 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="6"/>
-      <c r="C39" s="12"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="11" t="s">
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="8">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7"/>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -1799,30 +1782,30 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="59" t="s">
+      <c r="I48" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="J48" s="59" t="s">
+      <c r="J48" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="K48" s="59" t="s">
+      <c r="K48" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="L48" s="59" t="s">
+      <c r="L48" s="47" t="s">
         <v>134</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="11">
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1838,318 +1821,316 @@
       <c r="H49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="6">
         <v>3.4395002393027493E-3</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="8">
+      <c r="H50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="7">
         <v>5</v>
       </c>
-      <c r="J50" s="27">
+      <c r="J50" s="6">
         <f>C50</f>
         <v>3.4395002393027493E-3</v>
       </c>
-      <c r="K50" s="27">
+      <c r="K50" s="6">
         <v>2.47644017229798E-3</v>
       </c>
-      <c r="L50" s="27">
+      <c r="L50" s="6">
         <v>3.9554252751981623E-3</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="6">
         <v>3.031086824854091E-3</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H51" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="8">
+      <c r="H51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="7">
         <v>5</v>
       </c>
-      <c r="J51" s="27">
+      <c r="J51" s="6">
         <f t="shared" ref="J51:J55" si="0">C51</f>
         <v>3.031086824854091E-3</v>
       </c>
-      <c r="K51" s="27">
+      <c r="K51" s="6">
         <v>2.1823825138949458E-3</v>
       </c>
-      <c r="L51" s="27">
+      <c r="L51" s="6">
         <v>3.4857498485822047E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="6">
         <v>1.9382725618983033E-3</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I52" s="8">
+      <c r="H52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="7">
         <v>5</v>
       </c>
-      <c r="J52" s="27">
+      <c r="J52" s="6">
         <f t="shared" si="0"/>
         <v>1.9382725618983033E-3</v>
       </c>
-      <c r="K52" s="27">
+      <c r="K52" s="6">
         <v>1.3955562445667786E-3</v>
       </c>
-      <c r="L52" s="27">
+      <c r="L52" s="6">
         <v>2.229013446183049E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="6">
         <v>2.3696978460418996E-4</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="8">
+      <c r="H53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="7">
         <v>5</v>
       </c>
-      <c r="J53" s="27">
+      <c r="J53" s="6">
         <f t="shared" si="0"/>
         <v>2.3696978460418996E-4</v>
       </c>
-      <c r="K53" s="27">
+      <c r="K53" s="6">
         <v>1.706182449150168E-4</v>
       </c>
-      <c r="L53" s="27">
+      <c r="L53" s="6">
         <v>2.7251525229481848E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="6">
         <f>0.000212594397980664*0.5</f>
         <v>1.06297198990332E-4</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H54" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="8">
+      <c r="H54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="7">
         <v>5</v>
       </c>
-      <c r="J54" s="27">
+      <c r="J54" s="6">
         <f t="shared" si="0"/>
         <v>1.06297198990332E-4</v>
       </c>
-      <c r="K54" s="27">
+      <c r="K54" s="6">
         <f>0.000153067966546078*0.5</f>
         <v>7.6533983273039007E-5</v>
       </c>
-      <c r="L54" s="27">
+      <c r="L54" s="6">
         <f>0.000244483557677763*0.5</f>
         <v>1.222417788388815E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="6">
         <f>0.000212594397980664*0.5</f>
         <v>1.06297198990332E-4</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H55" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" s="8">
+      <c r="H55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="7">
         <v>5</v>
       </c>
-      <c r="J55" s="27">
+      <c r="J55" s="6">
         <f t="shared" si="0"/>
         <v>1.06297198990332E-4</v>
       </c>
-      <c r="K55" s="27">
+      <c r="K55" s="6">
         <f>0.000153067966546078*0.5</f>
         <v>7.6533983273039007E-5</v>
       </c>
-      <c r="L55" s="27">
+      <c r="L55" s="6">
         <f>0.000244483557677763*0.5</f>
         <v>1.222417788388815E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="6"/>
-      <c r="C56" s="12"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="7"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A60" s="11" t="s">
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="8">
-        <v>1</v>
-      </c>
-      <c r="C61" s="7"/>
+      <c r="B61" s="7">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="7"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -2167,30 +2148,30 @@
       <c r="H65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I65" s="59" t="s">
+      <c r="I65" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="J65" s="59" t="s">
+      <c r="J65" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="K65" s="59" t="s">
+      <c r="K65" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="L65" s="59" t="s">
+      <c r="L65" s="47" t="s">
         <v>134</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="11">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -2208,497 +2189,487 @@
       </c>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="27">
+      <c r="C67" s="6">
         <v>1.6071616147067549E-2</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H67" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="8">
+      <c r="H67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="7">
         <v>5</v>
       </c>
-      <c r="J67" s="27">
+      <c r="J67" s="6">
         <f>C67</f>
         <v>1.6071616147067549E-2</v>
       </c>
-      <c r="K67" s="27">
+      <c r="K67" s="6">
         <v>1.205371211030066E-2</v>
       </c>
-      <c r="L67" s="27">
+      <c r="L67" s="6">
         <v>2.0089520183834437E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="27">
+      <c r="C68" s="6">
         <v>1.4163239008049623E-2</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I68" s="8">
+      <c r="H68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="7">
         <v>5</v>
       </c>
-      <c r="J68" s="27">
+      <c r="J68" s="6">
         <f t="shared" ref="J68:J72" si="1">C68</f>
         <v>1.4163239008049623E-2</v>
       </c>
-      <c r="K68" s="27">
+      <c r="K68" s="6">
         <v>1.0622429256037217E-2</v>
       </c>
-      <c r="L68" s="27">
+      <c r="L68" s="6">
         <v>1.7704048760062027E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69" s="6">
         <v>9.0568892094444742E-3</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="8">
+      <c r="H69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="7">
         <v>5</v>
       </c>
-      <c r="J69" s="27">
+      <c r="J69" s="6">
         <f t="shared" si="1"/>
         <v>9.0568892094444742E-3</v>
       </c>
-      <c r="K69" s="27">
+      <c r="K69" s="6">
         <v>6.7926669070833548E-3</v>
       </c>
-      <c r="L69" s="27">
+      <c r="L69" s="6">
         <v>1.1321111511805593E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="27">
+      <c r="C70" s="6">
         <v>1.1072792997926552E-3</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H70" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" s="8">
+      <c r="H70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="7">
         <v>5</v>
       </c>
-      <c r="J70" s="27">
+      <c r="J70" s="6">
         <f t="shared" si="1"/>
         <v>1.1072792997926552E-3</v>
       </c>
-      <c r="K70" s="27">
+      <c r="K70" s="6">
         <v>8.3045947484449128E-4</v>
       </c>
-      <c r="L70" s="27">
+      <c r="L70" s="6">
         <v>1.384099124740819E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="27">
+      <c r="C71" s="6">
         <f>0.000993381398936833*0.5</f>
         <v>4.966906994684165E-4</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H71" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="8">
+      <c r="H71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="7">
         <v>5</v>
       </c>
-      <c r="J71" s="27">
+      <c r="J71" s="6">
         <f t="shared" si="1"/>
         <v>4.966906994684165E-4</v>
       </c>
-      <c r="K71" s="27">
+      <c r="K71" s="6">
         <f>0.000745036049202625*0.5</f>
         <v>3.7251802460131248E-4</v>
       </c>
-      <c r="L71" s="27">
+      <c r="L71" s="6">
         <f>0.00124172674867104*0.5</f>
         <v>6.2086337433551997E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="27">
+      <c r="C72" s="6">
         <f>0.000993381398936833*0.5</f>
         <v>4.966906994684165E-4</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H72" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" s="8">
+      <c r="H72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="7">
         <v>5</v>
       </c>
-      <c r="J72" s="27">
+      <c r="J72" s="6">
         <f t="shared" si="1"/>
         <v>4.966906994684165E-4</v>
       </c>
-      <c r="K72" s="27">
+      <c r="K72" s="6">
         <f>0.000745036049202625*0.5</f>
         <v>3.7251802460131248E-4</v>
       </c>
-      <c r="L72" s="27">
+      <c r="L72" s="6">
         <f>0.00124172674867104*0.5</f>
         <v>6.2086337433551997E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="27">
+      <c r="C73" s="6">
         <v>1.6253493375269053E-2</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="18" t="s">
+      <c r="H73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="27">
+      <c r="C74" s="6">
         <v>5.8029316751313217E-2</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H74" s="18" t="s">
+      <c r="H74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="27">
+      <c r="C75" s="6">
         <v>-2.2921593221533301E-4</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="18" t="s">
+      <c r="H75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="27">
+      <c r="C76" s="6">
         <v>-8.1836215931339201E-4</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="H76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="64">
+      <c r="C77" s="52">
         <v>1.8241970080552359E-6</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G77" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="8">
+      <c r="G77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="7">
         <v>5</v>
       </c>
-      <c r="J77" s="27">
+      <c r="J77" s="6">
         <v>1.8241970080552359E-6</v>
       </c>
-      <c r="K77" s="27">
+      <c r="K77" s="6">
         <v>1.0033083544303798E-6</v>
       </c>
-      <c r="L77" s="27">
+      <c r="L77" s="6">
         <v>3.3443611814345993E-6</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="64">
+      <c r="C78" s="52">
         <v>-1.8241970080552401E-6</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G78" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" s="8"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
+      <c r="G78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
       <c r="M78" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="52">
         <v>6.8546221710778674E-6</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G79" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="8">
+      <c r="G79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="7">
         <v>5</v>
       </c>
-      <c r="J79" s="27">
+      <c r="J79" s="6">
         <v>6.8546221710778674E-6</v>
       </c>
-      <c r="K79" s="27">
+      <c r="K79" s="6">
         <v>3.770042194092827E-6</v>
       </c>
-      <c r="L79" s="27">
+      <c r="L79" s="6">
         <v>1.2566807313642757E-5</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C80" s="27">
+      <c r="C80" s="6">
         <v>5.4291577620691547E-6</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="8">
+      <c r="G80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="7">
         <v>5</v>
       </c>
-      <c r="J80" s="27">
+      <c r="J80" s="6">
         <v>5.4291577620691547E-6</v>
       </c>
-      <c r="K80" s="27">
+      <c r="K80" s="6">
         <v>2.9860367691380352E-6</v>
       </c>
-      <c r="L80" s="27">
+      <c r="L80" s="6">
         <v>9.9534558971267831E-6</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-    </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="E82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-    </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C83" s="27"/>
-    </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="D86" s="8"/>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2710,861 +2681,825 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99448CAE-267B-402B-A288-CF006747B19D}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.15234375" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="14" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.69140625" style="2" customWidth="1"/>
-    <col min="16" max="25" width="12.69140625" customWidth="1"/>
+    <col min="9" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="2" customWidth="1"/>
+    <col min="16" max="25" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="58" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:25" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A3" s="35" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="37" t="s">
+      <c r="C3" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="38">
-        <v>1</v>
-      </c>
-      <c r="I3" s="38">
-        <v>1</v>
-      </c>
-      <c r="J3" s="38">
-        <v>1</v>
-      </c>
-      <c r="K3" s="38">
-        <v>1</v>
-      </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="H3" s="27">
+        <v>1</v>
+      </c>
+      <c r="I3" s="27">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27">
+        <v>1</v>
+      </c>
+      <c r="K3" s="27">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A4" s="35" t="s">
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="37" t="s">
+      <c r="C4" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="38">
-        <v>1</v>
-      </c>
-      <c r="I4" s="38">
-        <v>1</v>
-      </c>
-      <c r="J4" s="38">
-        <v>1</v>
-      </c>
-      <c r="K4" s="38">
-        <v>1</v>
-      </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="H4" s="27">
+        <v>1</v>
+      </c>
+      <c r="I4" s="27">
+        <v>1</v>
+      </c>
+      <c r="J4" s="27">
+        <v>1</v>
+      </c>
+      <c r="K4" s="27">
+        <v>1</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="37" t="s">
+      <c r="C5" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="38">
-        <v>1</v>
-      </c>
-      <c r="I5" s="38">
-        <v>1</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-      <c r="K5" s="38">
-        <v>1</v>
-      </c>
-      <c r="L5" s="38">
-        <v>1</v>
-      </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="H5" s="27">
+        <v>1</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1</v>
+      </c>
+      <c r="J5" s="27">
+        <v>1</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27">
+        <v>1</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="20"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="37" t="s">
+      <c r="C6" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="38">
-        <v>1</v>
-      </c>
-      <c r="I6" s="38">
-        <v>1</v>
-      </c>
-      <c r="J6" s="38">
-        <v>1</v>
-      </c>
-      <c r="K6" s="38">
-        <v>1</v>
-      </c>
-      <c r="L6" s="38">
-        <v>1</v>
-      </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="H6" s="27">
+        <v>1</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
+      <c r="J6" s="27">
+        <v>1</v>
+      </c>
+      <c r="K6" s="27">
+        <v>1</v>
+      </c>
+      <c r="L6" s="27">
+        <v>1</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="20"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="37" t="s">
+      <c r="C7" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="38">
-        <v>1</v>
-      </c>
-      <c r="I7" s="38">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>1</v>
-      </c>
-      <c r="K7" s="38">
-        <v>1</v>
-      </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38">
-        <v>1</v>
-      </c>
-      <c r="N7" s="38"/>
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
+      <c r="J7" s="27">
+        <v>1</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27">
+        <v>1</v>
+      </c>
+      <c r="N7" s="27"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="20"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A8" s="37" t="s">
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="37" t="s">
+      <c r="C8" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38">
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27">
         <v>1</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="20"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="38">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="38">
-        <v>1</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="H9" s="27">
+        <v>1</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
+      <c r="J9" s="27">
+        <v>1</v>
+      </c>
+      <c r="K9" s="27">
+        <v>1</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="20"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A10" s="37" t="s">
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="38">
-        <v>1</v>
-      </c>
-      <c r="I10" s="38">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38">
-        <v>1</v>
-      </c>
-      <c r="K10" s="38">
-        <v>1</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="H10" s="27">
+        <v>1</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
+      <c r="J10" s="27">
+        <v>1</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="20"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="38">
-        <v>1</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="38">
-        <v>1</v>
-      </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
+      <c r="H11" s="27">
+        <v>1</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
+      <c r="J11" s="27">
+        <v>1</v>
+      </c>
+      <c r="K11" s="27">
+        <v>1</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="20"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A12" s="37" t="s">
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="37" t="s">
+      <c r="C12" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38">
-        <v>1</v>
-      </c>
-      <c r="K12" s="38">
-        <v>1</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27">
+        <v>1</v>
+      </c>
+      <c r="K12" s="27">
+        <v>1</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="20"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A13" s="37" t="s">
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="37" t="s">
+      <c r="C13" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38">
-        <v>1</v>
-      </c>
-      <c r="K13" s="38">
-        <v>1</v>
-      </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27">
+        <v>1</v>
+      </c>
+      <c r="K13" s="27">
+        <v>1</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="20"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A14" s="37" t="s">
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="37" t="s">
+      <c r="C14" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38">
-        <v>1</v>
-      </c>
-      <c r="K14" s="38">
-        <v>1</v>
-      </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27">
+        <v>1</v>
+      </c>
+      <c r="K14" s="27">
+        <v>1</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="20"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="11" t="s">
         <v>171</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>138</v>
       </c>
       <c r="P15" s="2"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="1" t="s">
         <v>140</v>
       </c>
       <c r="P16" s="2"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="18" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="1" t="s">
         <v>141</v>
       </c>
       <c r="P17" s="2"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="1" t="s">
         <v>143</v>
       </c>
       <c r="P18" s="2"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P20" s="20"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P21" s="20"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="18" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="4" t="s">
         <v>175</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>142</v>
       </c>
       <c r="P22" s="2"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -3575,44 +3510,42 @@
         <v>176</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="16">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16">
-        <v>1</v>
-      </c>
-      <c r="J23" s="16">
-        <v>1</v>
-      </c>
-      <c r="K23" s="16">
-        <v>1</v>
-      </c>
-      <c r="L23" s="16">
-        <v>1</v>
-      </c>
-      <c r="M23" s="16">
-        <v>1</v>
-      </c>
-      <c r="N23" s="16">
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1</v>
+      </c>
+      <c r="K23" s="13">
+        <v>1</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13">
+        <v>1</v>
+      </c>
+      <c r="N23" s="13">
         <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P23" s="20"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
@@ -3623,44 +3556,42 @@
         <v>176</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="16">
-        <v>1</v>
-      </c>
-      <c r="I24" s="16">
-        <v>1</v>
-      </c>
-      <c r="J24" s="16">
-        <v>1</v>
-      </c>
-      <c r="K24" s="16">
-        <v>1</v>
-      </c>
-      <c r="L24" s="16">
-        <v>1</v>
-      </c>
-      <c r="M24" s="16">
-        <v>1</v>
-      </c>
-      <c r="N24" s="16">
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1</v>
+      </c>
+      <c r="J24" s="13">
+        <v>1</v>
+      </c>
+      <c r="K24" s="13">
+        <v>1</v>
+      </c>
+      <c r="L24" s="13">
+        <v>1</v>
+      </c>
+      <c r="M24" s="13">
+        <v>1</v>
+      </c>
+      <c r="N24" s="13">
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P24" s="20"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>124</v>
       </c>
@@ -3671,44 +3602,42 @@
         <v>176</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="18" t="s">
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K25" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="53" t="s">
+      <c r="L25" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="M25" s="53" t="s">
+      <c r="M25" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="N25" s="53" t="s">
+      <c r="N25" s="13" t="s">
         <v>139</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P25" s="20"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>125</v>
       </c>
@@ -3719,44 +3648,42 @@
         <v>176</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="18" t="s">
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I26" s="53" t="s">
+      <c r="I26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="K26" s="53" t="s">
+      <c r="K26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="L26" s="53" t="s">
+      <c r="L26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="M26" s="53" t="s">
+      <c r="M26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="N26" s="53" t="s">
+      <c r="N26" s="13" t="s">
         <v>139</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P26" s="20"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -3767,121 +3694,121 @@
         <v>176</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="K27" s="53" t="s">
+      <c r="K27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="53" t="s">
+      <c r="L27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="M27" s="53" t="s">
+      <c r="M27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="N27" s="53" t="s">
+      <c r="N27" s="13" t="s">
         <v>139</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="P27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="18"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="24"/>
-      <c r="U28" s="24"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="P28" s="18"/>
+      <c r="U28" s="18"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="18"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="24"/>
-      <c r="U29" s="24"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A30" s="25"/>
+      <c r="P29" s="18"/>
+      <c r="U29" s="18"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="10"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="2"/>
       <c r="O30" s="1"/>
-      <c r="Q30" s="19"/>
-      <c r="U30" s="24"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A31" s="25"/>
+      <c r="Q30" s="15"/>
+      <c r="U30" s="18"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="1"/>
-      <c r="Q31" s="19"/>
-      <c r="U31" s="24"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q31" s="15"/>
+      <c r="U31" s="18"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3889,18 +3816,18 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" s="1"/>
-      <c r="Q32" s="24"/>
-      <c r="U32" s="24"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q32" s="18"/>
+      <c r="U32" s="18"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3908,18 +3835,18 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
       <c r="O33" s="1"/>
-      <c r="Q33" s="24"/>
-      <c r="U33" s="24"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q33" s="18"/>
+      <c r="U33" s="18"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3927,18 +3854,18 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="1"/>
-      <c r="Q34" s="24"/>
-      <c r="U34" s="24"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q34" s="18"/>
+      <c r="U34" s="18"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3946,18 +3873,18 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" s="1"/>
-      <c r="Q35" s="24"/>
-      <c r="U35" s="24"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q35" s="18"/>
+      <c r="U35" s="18"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3965,243 +3892,243 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" s="1"/>
-      <c r="Q36" s="24"/>
-      <c r="U36" s="24"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q36" s="18"/>
+      <c r="U36" s="18"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="1"/>
-      <c r="Q37" s="24"/>
-      <c r="U37" s="24"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="25"/>
+      <c r="Q37" s="18"/>
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
       <c r="B38" s="2"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" s="1"/>
-      <c r="Q38" s="24"/>
-      <c r="U38" s="24"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="25"/>
+      <c r="Q38" s="18"/>
+      <c r="U38" s="18"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
       <c r="O39" s="1"/>
-      <c r="Q39" s="19"/>
-      <c r="U39" s="24"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="25"/>
+      <c r="Q39" s="15"/>
+      <c r="U39" s="18"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" s="1"/>
-      <c r="Q40" s="19"/>
-      <c r="U40" s="24"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="25"/>
+      <c r="Q40" s="15"/>
+      <c r="U40" s="18"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" s="1"/>
-      <c r="Q41" s="19"/>
-      <c r="U41" s="24"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42" s="25"/>
+      <c r="Q41" s="15"/>
+      <c r="U41" s="18"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="65"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="1"/>
-      <c r="Q42" s="19"/>
-      <c r="U42" s="24"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43" s="25"/>
+      <c r="Q42" s="15"/>
+      <c r="U42" s="18"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" s="1"/>
-      <c r="Q43" s="19"/>
-      <c r="U43" s="24"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44" s="25"/>
+      <c r="Q43" s="15"/>
+      <c r="U43" s="18"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
       <c r="O44" s="1"/>
-      <c r="Q44" s="19"/>
-      <c r="U44" s="24"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45" s="25"/>
+      <c r="Q44" s="15"/>
+      <c r="U44" s="18"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="19"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" s="1"/>
-      <c r="Q45" s="19"/>
-      <c r="U45" s="24"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46" s="25"/>
-      <c r="B46" s="63"/>
+      <c r="Q45" s="15"/>
+      <c r="U45" s="18"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
       <c r="O46" s="1"/>
-      <c r="Q46" s="19"/>
-      <c r="U46" s="24"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47" s="25"/>
+      <c r="Q46" s="15"/>
+      <c r="U46" s="18"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="19"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" s="1"/>
-      <c r="Q47" s="19"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48" s="25"/>
+      <c r="Q47" s="15"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="19"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="1"/>
-      <c r="Q48" s="19"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4234,1225 +4161,1201 @@
       <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.3828125" customWidth="1"/>
-    <col min="2" max="2" width="39.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.15234375" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.15234375" customWidth="1"/>
-    <col min="11" max="13" width="12.69140625" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="58" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:13" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="35" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="37" t="s">
+      <c r="C3" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="38">
-        <v>1</v>
-      </c>
-      <c r="I3" s="38">
-        <v>1</v>
-      </c>
-      <c r="J3" s="38">
+      <c r="H3" s="27">
+        <v>1</v>
+      </c>
+      <c r="I3" s="27">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27">
         <v>1</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="41" t="s">
+      <c r="C4" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="42">
         <v>730</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="42">
         <v>365</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="42">
         <v>365</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="39" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="41" t="s">
+      <c r="C5" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="54">
+      <c r="H5" s="31"/>
+      <c r="I5" s="42">
         <v>109.5</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="42">
         <v>109.5</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="39" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="41" t="s">
+      <c r="C6" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="54">
+      <c r="H6" s="31"/>
+      <c r="I6" s="42">
         <v>182.5</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="42">
         <v>182.5</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="41" t="s">
+      <c r="C7" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="54">
+      <c r="H7" s="31"/>
+      <c r="I7" s="42">
         <v>73</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="42">
         <v>73</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="43" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="45" t="s">
+      <c r="C8" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="43">
         <v>894</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="43">
         <v>742.02</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="43">
         <v>742.02</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="43" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="45" t="s">
+      <c r="C9" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="55">
+      <c r="H9" s="37"/>
+      <c r="I9" s="43">
         <v>50.660000000000004</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="43">
         <v>50.660000000000004</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="45" t="s">
+      <c r="C10" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="55">
+      <c r="H10" s="37"/>
+      <c r="I10" s="43">
         <v>50.660000000000004</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="43">
         <v>50.660000000000004</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="43" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="45" t="s">
+      <c r="C11" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="55">
+      <c r="H11" s="35"/>
+      <c r="I11" s="43">
         <v>50.660000000000004</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="43">
         <v>50.660000000000004</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="49" t="s">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="41" t="s">
+      <c r="C12" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="44">
         <v>416.5</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="49" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="41" t="s">
+      <c r="C13" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="49" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="41" t="s">
+      <c r="C14" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="44">
         <v>416.5</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" s="49" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="41" t="s">
+      <c r="C15" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="49" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="41" t="s">
+      <c r="C16" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="43" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="45" t="s">
+      <c r="C17" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="57">
+      <c r="H17" s="36"/>
+      <c r="I17" s="45">
         <v>129.11500000000001</v>
       </c>
-      <c r="J17" s="47"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="43" t="s">
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="45" t="s">
+      <c r="C18" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="57">
+      <c r="H18" s="35"/>
+      <c r="I18" s="45">
         <v>66.64</v>
       </c>
-      <c r="J18" s="46"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="43" t="s">
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="45" t="s">
+      <c r="C19" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="57">
+      <c r="H19" s="35"/>
+      <c r="I19" s="45">
         <v>58.31</v>
       </c>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="43" t="s">
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="45" t="s">
+      <c r="C20" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="57">
+      <c r="H20" s="35"/>
+      <c r="I20" s="45">
         <v>58.31</v>
       </c>
-      <c r="J20" s="46"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="43" t="s">
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="45" t="s">
+      <c r="C21" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="57">
+      <c r="H21" s="35"/>
+      <c r="I21" s="45">
         <v>104.125</v>
       </c>
-      <c r="J21" s="46"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="49" t="s">
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="41" t="s">
+      <c r="C22" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="56">
+      <c r="H22" s="39"/>
+      <c r="I22" s="44">
         <v>129.11500000000001</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="44">
         <v>258.23</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="41" t="s">
+      <c r="C23" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="54">
+      <c r="H23" s="31"/>
+      <c r="I23" s="42">
         <v>66.64</v>
       </c>
-      <c r="J23" s="56">
+      <c r="J23" s="44">
         <v>133.28</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="49" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="41" t="s">
+      <c r="C24" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="54">
+      <c r="H24" s="31"/>
+      <c r="I24" s="42">
         <v>58.31</v>
       </c>
-      <c r="J24" s="56">
+      <c r="J24" s="44">
         <v>116.62</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="49" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="41" t="s">
+      <c r="C25" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="54">
+      <c r="H25" s="31"/>
+      <c r="I25" s="42">
         <v>58.31</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J25" s="44">
         <v>116.62</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="41" t="s">
+      <c r="C26" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="54">
+      <c r="H26" s="31"/>
+      <c r="I26" s="42">
         <v>104.125</v>
       </c>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="43" t="s">
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="45" t="s">
+      <c r="C27" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="55">
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="43">
         <v>208.25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="51" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="41" t="s">
+      <c r="C28" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="44">
         <v>566</v>
       </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="51" t="s">
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="41" t="s">
+      <c r="C29" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="51" t="s">
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="41" t="s">
+      <c r="C30" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="51" t="s">
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="41" t="s">
+      <c r="C31" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="52" t="s">
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="45" t="s">
+      <c r="C32" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57">
+      <c r="H32" s="45"/>
+      <c r="I32" s="45">
         <v>333.94</v>
       </c>
-      <c r="J32" s="47"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="52" t="s">
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="45" t="s">
+      <c r="C33" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="55">
+      <c r="H33" s="35"/>
+      <c r="I33" s="43">
         <v>77.353333333333325</v>
       </c>
-      <c r="J33" s="46"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="52" t="s">
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="45" t="s">
+      <c r="C34" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="55">
+      <c r="H34" s="35"/>
+      <c r="I34" s="43">
         <v>77.353333333333325</v>
       </c>
-      <c r="J34" s="46"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="52" t="s">
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="45" t="s">
+      <c r="C35" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="55">
+      <c r="H35" s="35"/>
+      <c r="I35" s="43">
         <v>77.353333333333325</v>
       </c>
-      <c r="J35" s="46"/>
-      <c r="L35" s="58"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="51" t="s">
+      <c r="J35" s="35"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="41" t="s">
+      <c r="C36" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="56">
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="44">
         <v>333.94</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="51" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="41" t="s">
+      <c r="C37" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="54">
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="42">
         <v>77.353333333333325</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="51" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="41" t="s">
+      <c r="C38" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="54">
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="42">
         <v>77.353333333333325</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="51" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="41" t="s">
+      <c r="C39" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="54">
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="42">
         <v>77.353333333333325</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="52" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="45" t="s">
+      <c r="C40" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="43">
         <v>207</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="52" t="s">
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="45" t="s">
+      <c r="C41" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="51" t="s">
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="41" t="s">
+      <c r="C42" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="42"/>
-      <c r="I42" s="54">
+      <c r="H42" s="31"/>
+      <c r="I42" s="42">
         <v>103.5</v>
       </c>
-      <c r="J42" s="42"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="51" t="s">
+      <c r="J42" s="31"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="41" t="s">
+      <c r="C43" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H43" s="42"/>
-      <c r="I43" s="54">
+      <c r="H43" s="31"/>
+      <c r="I43" s="42">
         <v>103.5</v>
       </c>
-      <c r="J43" s="42"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="52" t="s">
+      <c r="J43" s="31"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="45" t="s">
+      <c r="C44" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="55">
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="43">
         <v>103.5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="52" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="45" t="s">
+      <c r="C45" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="55">
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="43">
         <v>103.5</v>
       </c>
     </row>
@@ -5469,62 +5372,62 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="9" width="11.69140625" customWidth="1"/>
-    <col min="10" max="10" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.69140625" customWidth="1"/>
-    <col min="13" max="13" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.15234375" customWidth="1"/>
-    <col min="15" max="15" width="13.84375" customWidth="1"/>
-    <col min="16" max="16" width="14.15234375" customWidth="1"/>
-    <col min="17" max="34" width="12.69140625" customWidth="1"/>
-    <col min="35" max="35" width="12.69140625" style="2" customWidth="1"/>
-    <col min="36" max="45" width="12.69140625" customWidth="1"/>
+    <col min="7" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="34" width="12.7109375" customWidth="1"/>
+    <col min="35" max="35" width="12.7109375" style="2" customWidth="1"/>
+    <col min="36" max="45" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -5537,20 +5440,20 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="24"/>
-      <c r="AO2" s="24"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
+      <c r="AJ2" s="18"/>
+      <c r="AO2" s="18"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="14">
         <v>0.105</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="14">
         <v>0.06</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="14">
         <v>0.15</v>
       </c>
       <c r="E3" s="2"/>
@@ -5558,13 +5461,13 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -5584,24 +5487,24 @@
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="1"/>
-      <c r="AJ3" s="24"/>
-      <c r="AO3" s="24"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+      <c r="AJ3" s="18"/>
+      <c r="AO3" s="18"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="14">
         <v>0.30919999999999997</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="14">
         <v>0.09</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="14">
         <v>0.84</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -5609,9 +5512,9 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -5631,24 +5534,24 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="1"/>
-      <c r="AK4" s="19"/>
-      <c r="AO4" s="24"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
+      <c r="AK4" s="15"/>
+      <c r="AO4" s="18"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="14">
         <v>0.6517857142857143</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="14">
         <v>0.45</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="14">
         <v>0.8</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -5656,42 +5559,42 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
       <c r="AI5" s="1"/>
-      <c r="AK5" s="19"/>
-      <c r="AO5" s="24"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A6" s="34" t="s">
+      <c r="AK5" s="15"/>
+      <c r="AO5" s="18"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="14">
         <v>1.2666666666666668</v>
       </c>
-      <c r="C6" s="32">
-        <v>1</v>
-      </c>
-      <c r="D6" s="32">
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
         <v>1.6875</v>
       </c>
       <c r="E6" s="2"/>
@@ -5703,42 +5606,42 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
       <c r="AI6" s="1"/>
-      <c r="AK6" s="24"/>
-      <c r="AO6" s="24"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A7" s="34" t="s">
+      <c r="AK6" s="18"/>
+      <c r="AO6" s="18"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="14">
         <v>2.4218750000000004</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="14">
         <v>1.8</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="14">
         <v>3.15</v>
       </c>
       <c r="E7" s="2"/>
@@ -5750,46 +5653,46 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
       <c r="AI7" s="1"/>
-      <c r="AK7" s="24"/>
-      <c r="AO7" s="24"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A8" s="34" t="s">
+      <c r="AK7" s="18"/>
+      <c r="AO7" s="18"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="14">
         <v>7.6237500000000002</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="14">
         <v>6</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="14">
         <v>9.9</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -5797,42 +5700,42 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
       <c r="AI8" s="1"/>
-      <c r="AK8" s="24"/>
-      <c r="AO8" s="24"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A9" s="33" t="s">
+      <c r="AK8" s="18"/>
+      <c r="AO8" s="18"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="14">
         <v>2.6899999999999997E-2</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="14">
         <v>1.0799999999999999E-2</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="14">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="E9" s="2"/>
@@ -5844,42 +5747,42 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
       <c r="AI9" s="1"/>
-      <c r="AK9" s="24"/>
-      <c r="AO9" s="24"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A10" s="33" t="s">
+      <c r="AK9" s="18"/>
+      <c r="AO9" s="18"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="14">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="14">
         <v>4.3199999999999995E-2</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="14">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="E10" s="2"/>
@@ -5891,42 +5794,42 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
       <c r="AI10" s="1"/>
-      <c r="AK10" s="24"/>
-      <c r="AO10" s="24"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A11" s="33" t="s">
+      <c r="AK10" s="18"/>
+      <c r="AO10" s="18"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="14">
         <v>0.11276666666666664</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="14">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="14">
         <v>0.14399999999999999</v>
       </c>
       <c r="E11" s="2"/>
@@ -5938,42 +5841,42 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
       <c r="AI11" s="1"/>
-      <c r="AK11" s="24"/>
-      <c r="AO11" s="24"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A12" s="33" t="s">
+      <c r="AK11" s="18"/>
+      <c r="AO11" s="18"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="14">
         <v>3.5549999999999998E-2</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="14">
         <v>3.0150000000000003E-2</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E12" s="1"/>
@@ -5985,46 +5888,46 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
       <c r="AI12" s="1"/>
-      <c r="AK12" s="19"/>
-      <c r="AO12" s="24"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A13" s="33" t="s">
+      <c r="AK12" s="15"/>
+      <c r="AO12" s="18"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="14">
         <v>0.59999999999999987</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="14">
         <v>0.36</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="14">
         <v>0.83999999999999986</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -6032,42 +5935,42 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
       <c r="AI13" s="1"/>
-      <c r="AK13" s="19"/>
-      <c r="AO13" s="24"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A14" s="33" t="s">
+      <c r="AK13" s="15"/>
+      <c r="AO13" s="18"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="14">
         <v>1.38375</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="14">
         <v>1.2375</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="14">
         <v>1.53</v>
       </c>
       <c r="E14" s="1"/>
@@ -6079,33 +5982,33 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
       <c r="AI14" s="1"/>
-      <c r="AK14" s="19"/>
-      <c r="AO14" s="24"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A15" s="25"/>
+      <c r="AK14" s="15"/>
+      <c r="AO14" s="18"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -6118,38 +6021,38 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
       <c r="AI15" s="1"/>
-      <c r="AK15" s="19"/>
-      <c r="AO15" s="24"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A16" s="25"/>
+      <c r="AK15" s="15"/>
+      <c r="AO15" s="18"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -6157,33 +6060,33 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
       <c r="AI16" s="1"/>
-      <c r="AK16" s="19"/>
-      <c r="AO16" s="24"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A17" s="25"/>
+      <c r="AK16" s="15"/>
+      <c r="AO16" s="18"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -6196,33 +6099,33 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
       <c r="AI17" s="1"/>
-      <c r="AK17" s="19"/>
-      <c r="AO17" s="24"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A18" s="25"/>
+      <c r="AK17" s="15"/>
+      <c r="AO17" s="18"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -6235,33 +6138,33 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
       <c r="AI18" s="1"/>
-      <c r="AK18" s="19"/>
-      <c r="AO18" s="24"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A19" s="25"/>
+      <c r="AK18" s="15"/>
+      <c r="AO18" s="18"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -6274,32 +6177,32 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
       <c r="AI19" s="1"/>
-      <c r="AK19" s="19"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A20" s="25"/>
+      <c r="AK19" s="15"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -6312,31 +6215,31 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
       <c r="AI20" s="1"/>
-      <c r="AK20" s="19"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="AK20" s="15"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
